--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganng/Documents/GitHub/QLSC600D2_2025_M5A1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\QLSC600\Module 5\QLSC600D2_2025_M5A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F50C4-B3A0-4D42-B5FD-508D56FE9F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CC6BFE-1F3D-4D44-AA0A-1BA0F54F47F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Link to article</t>
   </si>
@@ -225,12 +225,33 @@
   <si>
     <t xml:space="preserve">Qualitative study with minimal detail and inaccesible equipment. </t>
   </si>
+  <si>
+    <t>Ioan Duchastel</t>
+  </si>
+  <si>
+    <t>Cancer Cell Membrane-Coated Nanoparticles for Anticancer Vaccination and Drug Delivery</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/full/10.1021/nl500618u</t>
+  </si>
+  <si>
+    <t>Qualitative study with a lot of details on the experimental procedure, to the reagents used in every steps to the tools used in the experiment. Not 5/5 as some of the tools used are expensive but not a big deal. Image analysis can be done on open source software so overall pretty thorough and good study to follow</t>
+  </si>
+  <si>
+    <t>Effective cancer targeting and imaging using macrophage membranecamouflaged upconversion nanoparticles</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/jbm.a.35927</t>
+  </si>
+  <si>
+    <t>Qualitative study with a decent amount of detail, methods are just enough for this paper, you can still access them through other related papers (which seems to be to get more citations than anything) but reagent concentrations are severely lacking, making it quite difficult to reproduce.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -893,12 +914,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -907,7 +928,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -916,7 +937,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -925,7 +946,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -934,7 +955,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="21">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -943,11 +964,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -964,28 +985,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="101.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" customWidth="1"/>
+    <col min="13" max="13" width="101.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
@@ -998,7 +1019,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="27" customHeight="1">
       <c r="F2" s="25" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1032,7 @@
       </c>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="58.05" customHeight="1">
       <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -1073,7 +1094,7 @@
       <c r="L4" s="27"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="61.05" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1114,7 +1135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
@@ -1156,7 +1177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A54" si="0">A6+1</f>
         <v>3</v>
@@ -1176,7 +1197,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1196,7 +1217,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1216,7 +1237,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1258,7 +1279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1300,7 +1321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1319,7 +1340,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1338,7 +1359,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1358,7 +1379,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1400,7 +1421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1442,7 +1463,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1462,7 +1483,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1482,7 +1503,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1500,7 +1521,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1518,7 +1539,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1536,7 +1557,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1554,7 +1575,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1572,43 +1593,91 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6">
+        <v>5</v>
+      </c>
+      <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="6">
+        <v>4</v>
+      </c>
+      <c r="J24" s="6">
+        <v>4</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="6">
+        <v>4</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3</v>
+      </c>
+      <c r="I25" s="6">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6">
+        <v>4</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="6">
+        <v>4</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1624,9 +1693,8 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1644,7 +1712,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1662,7 +1730,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1680,7 +1748,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="1" customFormat="1">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1698,7 +1766,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1716,7 +1784,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="1" customFormat="1">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1734,7 +1802,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="1" customFormat="1">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1752,7 +1820,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="1" customFormat="1">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1770,7 +1838,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="1" customFormat="1">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1788,7 +1856,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1806,7 +1874,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="1" customFormat="1">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1824,7 +1892,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="1" customFormat="1">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1842,7 +1910,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1860,7 +1928,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1878,7 +1946,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1896,7 +1964,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1914,7 +1982,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1932,7 +2000,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1950,7 +2018,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1968,7 +2036,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="1" customFormat="1">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1986,7 +2054,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="1" customFormat="1">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2004,7 +2072,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2022,7 +2090,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="1" customFormat="1">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2040,7 +2108,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="1" customFormat="1">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2058,7 +2126,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2076,7 +2144,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="1" customFormat="1">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2094,7 +2162,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="1" customFormat="1">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2112,7 +2180,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2130,7 +2198,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:13" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:B4"/>
@@ -2148,7 +2216,10 @@
     <hyperlink ref="D15" r:id="rId2" xr:uid="{F5278718-A4B4-4240-985E-B0483DC8FE28}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{D9D5E1C5-2E77-904A-AA9E-B48D428046B2}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{05674F12-7BCD-F047-B51E-2A47BBB4405F}"/>
+    <hyperlink ref="D24" r:id="rId5" xr:uid="{A93D740E-1A74-4A3C-9542-AA098CE3B059}"/>
+    <hyperlink ref="D25" r:id="rId6" xr:uid="{A4000C0B-615F-4C0B-9920-F0ED69BDA85A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanhuang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lydia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338ACD89-49F6-654C-B7FD-1AF655EA78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0749EE3-C6D7-4E2B-A6AF-8DA6F9F05482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>Link to article</t>
   </si>
@@ -249,12 +249,15 @@
   <si>
     <t>This is a pathology examination study which is based on only one patient. It is difficult to replicate since it is very hard to obtain  such patient samples. However, the pathological examination protocol was well-described in the paper.</t>
   </si>
+  <si>
+    <t>Lydia Hodgins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,6 +549,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,9 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,12 +923,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -934,7 +937,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -943,7 +946,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -952,7 +955,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -961,7 +964,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="21">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -970,11 +973,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -991,28 +994,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="101.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" customWidth="1"/>
+    <col min="13" max="13" width="101.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1025,30 +1028,30 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="25" t="s">
+    <row r="2" spans="1:13" ht="27" customHeight="1">
+      <c r="F2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="30" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="58.05" customHeight="1">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1066,21 +1069,21 @@
       <c r="J3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1096,11 +1099,11 @@
       <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="61.05" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
@@ -1183,7 +1186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A54" si="0">A6+1</f>
         <v>3</v>
@@ -1203,7 +1206,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1223,7 +1226,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1243,7 +1246,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1285,7 +1288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1327,7 +1330,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1346,7 +1349,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1365,7 +1368,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1385,7 +1388,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1427,7 +1430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1469,7 +1472,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1489,7 +1492,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="16.05" customHeight="1">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1509,7 +1512,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1520,7 +1523,7 @@
       <c r="C19" s="6">
         <v>2023</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -1551,7 +1554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1562,7 +1565,7 @@
       <c r="C20" s="6">
         <v>2003</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="23" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -1593,7 +1596,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1613,7 +1616,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1633,7 +1636,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1653,7 +1656,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1661,7 +1664,9 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -1671,7 +1676,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1679,7 +1684,9 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1689,7 +1696,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1697,7 +1704,9 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -1707,7 +1716,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="1" customFormat="1">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1715,7 +1724,9 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1725,7 +1736,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1733,7 +1744,9 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -1743,7 +1756,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1761,7 +1774,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="1" customFormat="1">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1779,7 +1792,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1797,7 +1810,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="1" customFormat="1">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1815,7 +1828,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="1" customFormat="1">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1833,7 +1846,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="1" customFormat="1">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1851,7 +1864,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="1" customFormat="1">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1869,7 +1882,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1887,7 +1900,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="1" customFormat="1">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1905,7 +1918,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="1" customFormat="1">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1923,7 +1936,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1941,7 +1954,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1959,7 +1972,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1977,7 +1990,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1995,7 +2008,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2013,7 +2026,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2031,7 +2044,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2049,7 +2062,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="1" customFormat="1">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2067,7 +2080,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="1" customFormat="1">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2085,7 +2098,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2103,7 +2116,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="1" customFormat="1">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2121,7 +2134,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="1" customFormat="1">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2139,7 +2152,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2157,7 +2170,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="1" customFormat="1">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2175,7 +2188,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="1" customFormat="1">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2193,7 +2206,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2211,7 +2224,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:13" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:B4"/>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lydia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monicacella/Desktop/QLSC600D2_2025_M5A1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0749EE3-C6D7-4E2B-A6AF-8DA6F9F05482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ACB7DE-6F05-8049-A0AC-8B4AAD1F94AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Link to article</t>
   </si>
@@ -252,12 +252,15 @@
   <si>
     <t>Lydia Hodgins</t>
   </si>
+  <si>
+    <t>Ioan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -923,12 +926,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -937,7 +940,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21">
+    <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -946,7 +949,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="21">
+    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -955,7 +958,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="21">
+    <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -964,7 +967,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="21">
+    <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -973,11 +976,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="21">
+    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="21">
+    <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -994,28 +997,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="25.69921875" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="20.796875" customWidth="1"/>
-    <col min="10" max="10" width="14.19921875" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" customWidth="1"/>
-    <col min="13" max="13" width="101.19921875" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="101.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1028,7 +1031,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="27" customHeight="1">
+    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F2" s="26" t="s">
         <v>7</v>
       </c>
@@ -1041,7 +1044,7 @@
       </c>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="58.05" customHeight="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="40.049999999999997" customHeight="1">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1103,7 +1106,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="61.05" customHeight="1">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
@@ -1186,7 +1189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A54" si="0">A6+1</f>
         <v>3</v>
@@ -1206,7 +1209,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1226,7 +1229,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1246,7 +1249,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1288,7 +1291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1330,7 +1333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1349,7 +1352,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1368,7 +1371,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1388,7 +1391,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1430,7 +1433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1472,7 +1475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1492,7 +1495,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="16.05" customHeight="1">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1512,7 +1515,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1554,7 +1557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1596,7 +1599,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1616,7 +1619,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1636,7 +1639,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1656,7 +1659,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1676,7 +1679,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1696,7 +1699,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1716,7 +1719,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1736,7 +1739,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1">
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1756,7 +1759,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1764,7 +1767,9 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1774,7 +1779,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1782,7 +1787,9 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -1792,7 +1799,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1800,7 +1807,9 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1810,7 +1819,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1818,7 +1827,9 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1828,7 +1839,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1">
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1836,7 +1847,9 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1846,7 +1859,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1">
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1864,7 +1877,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1">
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1882,7 +1895,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1">
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1900,7 +1913,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1">
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1918,7 +1931,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1936,7 +1949,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1">
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1954,7 +1967,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1">
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1972,7 +1985,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1990,7 +2003,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1">
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2008,7 +2021,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2026,7 +2039,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2044,7 +2057,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1">
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2062,7 +2075,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1">
+    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2080,7 +2093,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1">
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2098,7 +2111,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1">
+    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2116,7 +2129,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1">
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2134,7 +2147,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1">
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2152,7 +2165,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1">
+    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2170,7 +2183,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1">
+    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2188,7 +2201,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1">
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2206,7 +2219,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2224,7 +2237,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1"/>
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:B4"/>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monicacella/Desktop/QLSC600D2_2025_M5A1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\QLSC600\Module 5\QLSC600D2_2025_M5A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ACB7DE-6F05-8049-A0AC-8B4AAD1F94AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216108D-C699-4DD3-93E0-EBB43B05F6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Link to article</t>
   </si>
@@ -255,12 +255,33 @@
   <si>
     <t>Ioan</t>
   </si>
+  <si>
+    <t>Cancer Cell Membrane-Coated Nanoparticles for Anticancer Vaccination and Drug Delivery</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/full/10.1021/nl500618u</t>
+  </si>
+  <si>
+    <t>Ioan Duchastel</t>
+  </si>
+  <si>
+    <t>Qualitative study with a lot of details on the experimental procedure, to the reagents used in every steps to the tools used in the experiment. Not 5/5 as some of the tools used are expensive but not a big deal. Image analysis can be done on open source software so overall pretty thorough and good study to follow</t>
+  </si>
+  <si>
+    <t>Effective cancer targeting and imaging using macrophage membranecamouflaged upconversion nanoparticles</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/jbm.a.35927</t>
+  </si>
+  <si>
+    <t>Qualitative study with a decent amount of detail, methods are just enough for this paper, you can still access them through other related papers (which seems to be to get more citations than anything) but reagent concentrations are severely lacking, making it quite difficult to reproduce.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -926,12 +947,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
@@ -940,7 +961,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -949,7 +970,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="21">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -958,7 +979,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -967,7 +988,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="21">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -976,11 +997,11 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -998,27 +1019,27 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.69921875" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" customWidth="1"/>
-    <col min="13" max="13" width="101.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="11" max="11" width="13.296875" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" customWidth="1"/>
+    <col min="13" max="13" width="101.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1031,7 +1052,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="27" customHeight="1">
       <c r="F2" s="26" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1065,7 @@
       </c>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="58.05" customHeight="1">
       <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="40.049999999999997" customHeight="1">
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1106,7 +1127,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="61.05" customHeight="1">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1147,7 +1168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A6" s="2">
         <f>A5+1</f>
         <v>2</v>
@@ -1189,7 +1210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A7" s="2">
         <f t="shared" ref="A7:A54" si="0">A6+1</f>
         <v>3</v>
@@ -1209,7 +1230,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1229,7 +1250,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1249,7 +1270,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1291,7 +1312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1333,7 +1354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1352,7 +1373,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1371,7 +1392,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1391,7 +1412,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1433,7 +1454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1475,7 +1496,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1495,7 +1516,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="16.05" customHeight="1">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1515,7 +1536,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1557,7 +1578,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1599,7 +1620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1619,7 +1640,7 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1639,7 +1660,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1659,7 +1680,7 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1679,7 +1700,7 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1699,7 +1720,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1719,7 +1740,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="1" customFormat="1">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1739,7 +1760,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1759,47 +1780,91 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="21.6" customHeight="1">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="E29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>5</v>
+      </c>
+      <c r="H29" s="6">
+        <v>5</v>
+      </c>
+      <c r="I29" s="6">
+        <v>4</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="6">
+        <v>4</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="E30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="6">
+        <v>4</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1819,7 +1884,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="1" customFormat="1">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1839,7 +1904,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="1" customFormat="1">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1859,7 +1924,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="1" customFormat="1">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1877,7 +1942,7 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="1" customFormat="1">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1895,7 +1960,7 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1913,7 +1978,7 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="1" customFormat="1">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1931,7 +1996,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="1" customFormat="1">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1949,7 +2014,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="1" customFormat="1">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1967,7 +2032,7 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="1" customFormat="1">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1985,7 +2050,7 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2003,7 +2068,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2021,7 +2086,7 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2039,7 +2104,7 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="1" customFormat="1">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2057,7 +2122,7 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="1" customFormat="1">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2075,7 +2140,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="1" customFormat="1">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2093,7 +2158,7 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="1" customFormat="1">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2111,7 +2176,7 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="1" customFormat="1">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2129,7 +2194,7 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" s="1" customFormat="1">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2147,7 +2212,7 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" s="1" customFormat="1">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2165,7 +2230,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2183,7 +2248,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" s="1" customFormat="1">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2201,7 +2266,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" s="1" customFormat="1">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2219,7 +2284,7 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" s="1" customFormat="1">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2237,7 +2302,7 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:13" s="1" customFormat="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:B4"/>
@@ -2257,6 +2322,8 @@
     <hyperlink ref="D11" r:id="rId4" xr:uid="{05674F12-7BCD-F047-B51E-2A47BBB4405F}"/>
     <hyperlink ref="D19" r:id="rId5" xr:uid="{800EF91D-8504-4040-BB43-40198693EDE2}"/>
     <hyperlink ref="D20" r:id="rId6" xr:uid="{95D8DD52-6892-0B41-BC31-4928BFD9FBFD}"/>
+    <hyperlink ref="D29" r:id="rId7" xr:uid="{08CA6207-3F6B-460E-92B7-F349FBEFB692}"/>
+    <hyperlink ref="D30" r:id="rId8" xr:uid="{65086669-9511-415C-A238-DD9BFFA9B52A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lydia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0749EE3-C6D7-4E2B-A6AF-8DA6F9F05482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D58A43F-BDA7-4F90-AC29-947173718D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>Link to article</t>
   </si>
@@ -252,12 +252,78 @@
   <si>
     <t>Lydia Hodgins</t>
   </si>
+  <si>
+    <t>Ioan</t>
+  </si>
+  <si>
+    <t>Cancer Cell Membrane-Coated Nanoparticles for Anticancer Vaccination and Drug Delivery</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/full/10.1021/nl500618u</t>
+  </si>
+  <si>
+    <t>Ioan Duchastel</t>
+  </si>
+  <si>
+    <t>Qualitative study with a lot of details on the experimental procedure, to the reagents used in every steps to the tools used in the experiment. Not 5/5 as some of the tools used are expensive but not a big deal. Image analysis can be done on open source software so overall pretty thorough and good study to follow</t>
+  </si>
+  <si>
+    <t>Effective cancer targeting and imaging using macrophage membranecamouflaged upconversion nanoparticles</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/jbm.a.35927</t>
+  </si>
+  <si>
+    <t>Qualitative study with a decent amount of detail, methods are just enough for this paper, you can still access them through other related papers (which seems to be to get more citations than anything) but reagent concentrations are severely lacking, making it quite difficult to reproduce.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single-molecule tracking reveals the functional allocation, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in vivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> interactions, and spatial organization of universal transcription factor NusG</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.molcel.2024.01.025</t>
+  </si>
+  <si>
+    <t>I left evaluating quality of experimental desing until the end because I felt that the points I was going to make in it fit better in the next three categories. When I returned to it I mostly reiterated the points I had made previously. I am also not sure how we are deciding the values to put int the replicability and reproducibility category - is it an average of the blue columns or just a general observation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single molecule microscopy reveals key physical features of repair foci in living cells </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7554/eLife.60577</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,6 +416,19 @@
       <sz val="12"/>
       <color theme="3" tint="0.499984740745262"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -493,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -581,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -994,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1661,39 +1743,81 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="E24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="F24" s="22">
+        <v>5</v>
+      </c>
+      <c r="G24" s="22">
+        <v>5</v>
+      </c>
+      <c r="H24" s="22">
+        <v>5</v>
+      </c>
+      <c r="I24" s="22">
+        <v>4</v>
+      </c>
+      <c r="J24" s="22">
+        <v>3</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="E25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1">
@@ -1756,41 +1880,89 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="21.6" customHeight="1">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1">
+      <c r="B29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2014</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>5</v>
+      </c>
+      <c r="H29" s="6">
+        <v>5</v>
+      </c>
+      <c r="I29" s="6">
+        <v>4</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="6">
+        <v>4</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="6">
+        <v>4</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="2">
@@ -1800,7 +1972,9 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -1818,7 +1992,9 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -1836,7 +2012,9 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -2244,6 +2422,10 @@
     <hyperlink ref="D11" r:id="rId4" xr:uid="{05674F12-7BCD-F047-B51E-2A47BBB4405F}"/>
     <hyperlink ref="D19" r:id="rId5" xr:uid="{800EF91D-8504-4040-BB43-40198693EDE2}"/>
     <hyperlink ref="D20" r:id="rId6" xr:uid="{95D8DD52-6892-0B41-BC31-4928BFD9FBFD}"/>
+    <hyperlink ref="D29" r:id="rId7" xr:uid="{08CA6207-3F6B-460E-92B7-F349FBEFB692}"/>
+    <hyperlink ref="D30" r:id="rId8" xr:uid="{65086669-9511-415C-A238-DD9BFFA9B52A}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{1C69C3B3-F482-47A1-AE68-8270C3A61230}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{B5ED07AE-40BD-47AC-A6EB-CCD4DF836BF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cols_draft_M5.xlsx
+++ b/Cols_draft_M5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\QLSC600\Module 5\QLSC600D2_2025_M5A1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lydia\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216108D-C699-4DD3-93E0-EBB43B05F6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D58A43F-BDA7-4F90-AC29-947173718D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{36676770-CB25-F949-8228-BA136C80F5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Deadlines" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
   <si>
     <t>Link to article</t>
   </si>
@@ -276,12 +276,54 @@
   <si>
     <t>Qualitative study with a decent amount of detail, methods are just enough for this paper, you can still access them through other related papers (which seems to be to get more citations than anything) but reagent concentrations are severely lacking, making it quite difficult to reproduce.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single-molecule tracking reveals the functional allocation, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in vivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> interactions, and spatial organization of universal transcription factor NusG</t>
+    </r>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.molcel.2024.01.025</t>
+  </si>
+  <si>
+    <t>I left evaluating quality of experimental desing until the end because I felt that the points I was going to make in it fit better in the next three categories. When I returned to it I mostly reiterated the points I had made previously. I am also not sure how we are deciding the values to put int the replicability and reproducibility category - is it an average of the blue columns or just a general observation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single molecule microscopy reveals key physical features of repair foci in living cells </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7554/eLife.60577</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,6 +416,19 @@
       <sz val="12"/>
       <color theme="3" tint="0.499984740745262"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -517,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -605,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1018,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037553EA-793E-E147-BDF6-0B4A3FE59E4A}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="H14" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1685,39 +1743,81 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="E24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="F24" s="22">
+        <v>5</v>
+      </c>
+      <c r="G24" s="22">
+        <v>5</v>
+      </c>
+      <c r="H24" s="22">
+        <v>5</v>
+      </c>
+      <c r="I24" s="22">
+        <v>4</v>
+      </c>
+      <c r="J24" s="22">
+        <v>3</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="22.95" customHeight="1">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="E25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4</v>
+      </c>
+      <c r="H25" s="6">
+        <v>4</v>
+      </c>
+      <c r="I25" s="6">
+        <v>5</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1">
@@ -2324,6 +2424,8 @@
     <hyperlink ref="D20" r:id="rId6" xr:uid="{95D8DD52-6892-0B41-BC31-4928BFD9FBFD}"/>
     <hyperlink ref="D29" r:id="rId7" xr:uid="{08CA6207-3F6B-460E-92B7-F349FBEFB692}"/>
     <hyperlink ref="D30" r:id="rId8" xr:uid="{65086669-9511-415C-A238-DD9BFFA9B52A}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{1C69C3B3-F482-47A1-AE68-8270C3A61230}"/>
+    <hyperlink ref="D25" r:id="rId10" xr:uid="{B5ED07AE-40BD-47AC-A6EB-CCD4DF836BF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
